--- a/DungeonShooting_Godot/excel/EnemyBase.xlsx
+++ b/DungeonShooting_Godot/excel/EnemyBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12200"/>
+    <workbookView windowHeight="17380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Gold</t>
+  </si>
+  <si>
+    <t>BloodColor</t>
+  </si>
+  <si>
+    <t>BodyFragment</t>
   </si>
   <si>
     <t>表Id</t>
@@ -111,6 +117,14 @@
 格式为[value]或者[min,max]</t>
   </si>
   <si>
+    <t>敌人死亡爆浆血液颜色, 填十六进制字符串(小写), 
+例如: ff0000
+不填默认白色</t>
+  </si>
+  <si>
+    <t>死亡时的尸体碎片</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -141,6 +155,12 @@
     <t>[-2,3]</t>
   </si>
   <si>
+    <t>fdc9c9</t>
+  </si>
+  <si>
+    <t>enemy_dead0001</t>
+  </si>
+  <si>
     <t>0002</t>
   </si>
   <si>
@@ -151,33 +171,6 @@
   </si>
   <si>
     <t>[-2,4]</t>
-  </si>
-  <si>
-    <t>0003</t>
-  </si>
-  <si>
-    <t>enemy0003</t>
-  </si>
-  <si>
-    <t>敌人3</t>
-  </si>
-  <si>
-    <t>0004</t>
-  </si>
-  <si>
-    <t>enemy0004</t>
-  </si>
-  <si>
-    <t>敌人4</t>
-  </si>
-  <si>
-    <t>0005</t>
-  </si>
-  <si>
-    <t>enemy0005</t>
-  </si>
-  <si>
-    <t>敌人5</t>
   </si>
 </sst>
 </file>
@@ -1114,30 +1107,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="13.7545454545455" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="2" customWidth="1"/>
     <col min="3" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.1272727272727" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="17" style="2" customWidth="1"/>
     <col min="7" max="7" width="15" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.6363636363636" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.1272727272727" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.2545454545455" style="2" customWidth="1"/>
-    <col min="11" max="11" width="21.2545454545455" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.6346153846154" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="17.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="23.5454545454545" style="2" customWidth="1"/>
-    <col min="14" max="17" width="9" style="2"/>
+    <col min="13" max="13" width="23.5480769230769" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.5096153846154" style="2" customWidth="1"/>
+    <col min="15" max="15" width="23.2307692307692" style="2" customWidth="1"/>
+    <col min="16" max="17" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:13">
+    <row r="1" ht="23" customHeight="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1177,104 +1172,122 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" ht="120" customHeight="1" spans="1:13">
+    <row r="2" ht="120" customHeight="1" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" ht="69" customHeight="1" spans="1:13">
+    <row r="3" ht="69" customHeight="1" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:13">
+    <row r="4" ht="30" customHeight="1" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2">
         <v>20</v>
       </c>
       <c r="E4" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>1500</v>
@@ -1298,24 +1311,30 @@
         <v>150</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" ht="34" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2">
         <v>25</v>
       </c>
       <c r="E5" s="2">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2">
         <v>1500</v>
@@ -1339,132 +1358,12 @@
         <v>150</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="6" ht="30" customHeight="1" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="2">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2">
-        <v>80</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1500</v>
-      </c>
-      <c r="G6" s="2">
-        <v>900</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>250</v>
-      </c>
-      <c r="K6" s="2">
-        <v>300</v>
-      </c>
-      <c r="L6" s="2">
-        <v>150</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" ht="30" customHeight="1" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="2">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2">
-        <v>80</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1500</v>
-      </c>
-      <c r="G7" s="2">
-        <v>900</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>250</v>
-      </c>
-      <c r="K7" s="2">
-        <v>300</v>
-      </c>
-      <c r="L7" s="2">
-        <v>150</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" ht="30" customHeight="1" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="2">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2">
-        <v>80</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1500</v>
-      </c>
-      <c r="G8" s="2">
-        <v>900</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
-        <v>250</v>
-      </c>
-      <c r="K8" s="2">
-        <v>300</v>
-      </c>
-      <c r="L8" s="2">
-        <v>150</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
+    <row r="6" ht="30" customHeight="1"/>
+    <row r="7" ht="30" customHeight="1"/>
+    <row r="8" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1481,7 +1380,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1498,7 +1397,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/EnemyBase.xlsx
+++ b/DungeonShooting_Godot/excel/EnemyBase.xlsx
@@ -155,7 +155,7 @@
     <t>[-2,3]</t>
   </si>
   <si>
-    <t>fdc9c9</t>
+    <t>ff0000</t>
   </si>
   <si>
     <t>enemy_dead0001</t>
@@ -1110,7 +1110,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
